--- a/Project Info/DataBase XLSX/daily report.xlsx
+++ b/Project Info/DataBase XLSX/daily report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -60,108 +60,111 @@
     <t>Card Type</t>
   </si>
   <si>
+    <t>4731 2178 3549 2461</t>
+  </si>
+  <si>
+    <t>Шинкаренко Валентина Сергіївна</t>
+  </si>
+  <si>
+    <t>$2a$10$o0WATJa9DOc6w3Dh1HIRBODBhHzDLaZ1GC9XkU1rN1PtnKYR77neC</t>
+  </si>
+  <si>
+    <t>09/2025</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>Івано-Франківська область, місто Івано-Франківськ, вул. Пирогова, 47, буд. 23, кв. 6</t>
+  </si>
+  <si>
+    <t>28.11.2022</t>
+  </si>
+  <si>
+    <t>$2a$10$dplSeg.e1Ewsxb..q08kLevy2bbG5ZeDgGeYL8DJIbnwa5prHH8Uq</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>Aura</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ТОВ “Енера Україна”</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Transaction ID</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>Transaction Type</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Source Account</t>
+  </si>
+  <si>
+    <t>Destination Account</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Оплата штрафу: Перевищення встановленої межі швидкості руху транспортного засобу водієм у населеному пункті.</t>
+  </si>
+  <si>
+    <t>UAH</t>
+  </si>
+  <si>
+    <t>2024-06-02T20:06:28.743Z</t>
+  </si>
+  <si>
+    <t>Успішно</t>
+  </si>
+  <si>
     <t>1111 2222 3333 4444</t>
   </si>
   <si>
-    <t>Іванова Аура Іванівна</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>12/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VISA      </t>
-  </si>
-  <si>
-    <t>9364</t>
-  </si>
-  <si>
-    <t>ikea</t>
-  </si>
-  <si>
-    <t>10.04.2021</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>Активна</t>
-  </si>
-  <si>
-    <t>50000</t>
-  </si>
-  <si>
-    <t>Aura</t>
-  </si>
-  <si>
-    <t>дебетова</t>
-  </si>
-  <si>
-    <t>User Name</t>
-  </si>
-  <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>ТОВ “Енера Україна”</t>
-  </si>
-  <si>
-    <t>where</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Transaction ID</t>
-  </si>
-  <si>
-    <t>User ID</t>
-  </si>
-  <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Source Account</t>
-  </si>
-  <si>
-    <t>Destination Account</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Переказ в фонд ikea</t>
-  </si>
-  <si>
-    <t>UAH</t>
-  </si>
-  <si>
-    <t>2024-05-18T07:09:29.190Z</t>
-  </si>
-  <si>
-    <t>Успішно</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>License Plates</t>
   </si>
   <si>
@@ -174,16 +177,13 @@
     <t>Fine Amount</t>
   </si>
   <si>
-    <t>AA 2222 AA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Незаконне паркування транспортного засобу.</t>
-  </si>
-  <si>
-    <t>07.05.2024</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>АА 3457 КА</t>
+  </si>
+  <si>
+    <t>Керування водієм транспортним засобом, що підлягає обов'язковому технічному контролю, але своєчасно його не пройшов;</t>
+  </si>
+  <si>
+    <t>05.02.2024</t>
   </si>
   <si>
     <t>IBAN</t>
@@ -207,22 +207,28 @@
     <t>Account Balance</t>
   </si>
   <si>
-    <t xml:space="preserve">Company A </t>
-  </si>
-  <si>
-    <t>1234567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Україна   </t>
-  </si>
-  <si>
-    <t>вул. Поштова, 1</t>
-  </si>
-  <si>
-    <t>Іван Іванов</t>
-  </si>
-  <si>
-    <t>+3801234567</t>
+    <t>ГазАльянс</t>
+  </si>
+  <si>
+    <t>UA599447725817874787173727969</t>
+  </si>
+  <si>
+    <t>Україна</t>
+  </si>
+  <si>
+    <t>Тернопільська область, місто Тернопіль, пров. Ставропольський, 82</t>
+  </si>
+  <si>
+    <t>Микитюк Людмила Миколаївна</t>
+  </si>
+  <si>
+    <t>+380508392549</t>
+  </si>
+  <si>
+    <t>749365849345</t>
+  </si>
+  <si>
+    <t>7493658345</t>
   </si>
   <si>
     <t>Fond Name</t>
@@ -237,25 +243,25 @@
     <t>Bank Account</t>
   </si>
   <si>
-    <t>11111</t>
-  </si>
-  <si>
-    <t>Україна</t>
-  </si>
-  <si>
-    <t>десь там</t>
-  </si>
-  <si>
-    <t>хтось</t>
-  </si>
-  <si>
-    <t>+380684696856</t>
-  </si>
-  <si>
-    <t>example@gmail.com</t>
-  </si>
-  <si>
-    <t>UA123456789012345678901234567890123456789012345678901234567890</t>
+    <t>БФ "БлагоДія"</t>
+  </si>
+  <si>
+    <t>94275</t>
+  </si>
+  <si>
+    <t>Тернопільська область, місто Тернопіль, просп. Урицького, 24</t>
+  </si>
+  <si>
+    <t>Миколаєнко Катерина Михайлівна</t>
+  </si>
+  <si>
+    <t>+380667895939</t>
+  </si>
+  <si>
+    <t>blagoDiya@gmail.com</t>
+  </si>
+  <si>
+    <t>UA455971225161968524898562216</t>
   </si>
 </sst>
 </file>
@@ -584,7 +590,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>17.0</v>
+        <v>41.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -592,10 +598,10 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -610,7 +616,7 @@
       <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -666,19 +672,19 @@
         <v>3.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3">
         <v>1111.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -698,66 +704,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>42.0</v>
+        <v>49.0</v>
       </c>
       <c r="B2" s="3">
-        <v>17.0</v>
+        <v>39.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="3">
-        <v>1111.0</v>
+        <v>0.0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -780,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>30</v>
@@ -797,22 +803,22 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="3">
-        <v>1000.0</v>
+        <v>340.0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -829,6 +835,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="7.63"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -864,12 +873,12 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -885,13 +894,13 @@
         <v>68</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J2" s="3">
-        <v>1025000.0</v>
+        <v>1000000.0</v>
       </c>
     </row>
   </sheetData>
@@ -914,10 +923,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>57</v>
@@ -932,10 +941,10 @@
         <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>62</v>
@@ -943,34 +952,34 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J2" s="3">
-        <v>14111.0</v>
+        <v>1000000.0</v>
       </c>
     </row>
   </sheetData>
